--- a/database/log_execucao.xlsx
+++ b/database/log_execucao.xlsx
@@ -1,37 +1,251 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\no\Python Programs\abreu_network_robot\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094ECF34-9C10-4808-A7BE-64B2FDD69436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="570" windowWidth="13710" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+  <si>
+    <t>NOME_ROBO</t>
+  </si>
+  <si>
+    <t>DATA_EXECUCAO</t>
+  </si>
+  <si>
+    <t>HORA_EXECUCAO</t>
+  </si>
+  <si>
+    <t>TEMPO_EXECUCAO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DETALHES</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>13:39</t>
+  </si>
+  <si>
+    <t>00:09:50</t>
+  </si>
+  <si>
+    <t>Sucesso</t>
+  </si>
+  <si>
+    <t>Robo excutado com sucesso</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
+  </si>
+  <si>
+    <t>08:25</t>
+  </si>
+  <si>
+    <t>00:03:27</t>
+  </si>
+  <si>
+    <t>09:26</t>
+  </si>
+  <si>
+    <t>00:00:31</t>
+  </si>
+  <si>
+    <t>Falha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=116.0.5845.141)
+Stacktrace:
+	GetHandleVerifier [0x00007FF7736352A2+57122]
+	(No symbol) [0x00007FF7735AEA92]
+	(No symbol) [0x00007FF77347E3AB]
+	(No symbol) [0x00007FF77345E1B9]
+	(No symbol) [0x00007FF7734DB417]
+	(No symbol) [0x00007FF7734EE24F]
+	(No symbol) [0x00007FF7734D6DB3]
+	(No symbol) [0x00007FF7734AD2B1]
+	(No symbol) [0x00007FF7734AE494]
+	GetHandleVerifier [0x00007FF7738DEF82+2849794]
+	GetHandleVerifier [0x00007FF773931D24+3189156]
+	GetHandleVerifier [0x00007FF77392ACAF+3160367]
+	GetHandleVerifier [0x00007FF7736C6D06+653702]
+	(No symbol) [0x00007FF7735BA208]
+	(No symbol) [0x00007FF7735B62C4]
+	(No symbol) [0x00007FF7735B63F6]
+	(No symbol) [0x00007FF7735A67A3]
+	BaseThreadInitThunk [0x00007FFBCE17257D+29]
+	RtlUserThreadStart [0x00007FFBCF58AA68+40]
+</t>
+  </si>
+  <si>
+    <t>09:29</t>
+  </si>
+  <si>
+    <t>00:02:17</t>
+  </si>
+  <si>
+    <t>00:02:22</t>
+  </si>
+  <si>
+    <t>00:03:10</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>00:00:50</t>
+  </si>
+  <si>
+    <t>[WinError 32] O arquivo já está sendo usado por outro processo: 'C:\\Users\\no\\AppData\\Local\\Temp\\openpyxl.tnbdk95m'</t>
+  </si>
+  <si>
+    <t>09:35</t>
+  </si>
+  <si>
+    <t>00:00:36</t>
+  </si>
+  <si>
+    <t>[WinError 32] O arquivo já está sendo usado por outro processo: 'C:\\Users\\no\\AppData\\Local\\Temp\\openpyxl.2l2mg6fd'</t>
+  </si>
+  <si>
+    <t>09:37</t>
+  </si>
+  <si>
+    <t>00:01:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: disconnected: unable to send message to renderer
+  (failed to check if window was closed: disconnected: not connected to DevTools)
+  (Session info: chrome=116.0.5845.141)
+Stacktrace:
+	GetHandleVerifier [0x00007FF7736352A2+57122]
+	(No symbol) [0x00007FF7735AEA92]
+	(No symbol) [0x00007FF77347E3AB]
+	(No symbol) [0x00007FF77346AA64]
+	(No symbol) [0x00007FF77346B447]
+	(No symbol) [0x00007FF773486808]
+	(No symbol) [0x00007FF7734E74F9]
+	(No symbol) [0x00007FF7734B3236]
+	(No symbol) [0x00007FF7734B263B]
+	(No symbol) [0x00007FF7734D6FDA]
+	(No symbol) [0x00007FF7734AEB76]
+	(No symbol) [0x00007FF7734D71F0]
+	(No symbol) [0x00007FF7734EEB82]
+	(No symbol) [0x00007FF7734D6DB3]
+	(No symbol) [0x00007FF7734AD2B1]
+	(No symbol) [0x00007FF7734AE494]
+	GetHandleVerifier [0x00007FF7738DEF82+2849794]
+	GetHandleVerifier [0x00007FF773931D24+3189156]
+	GetHandleVerifier [0x00007FF77392ACAF+3160367]
+	GetHandleVerifier [0x00007FF7736C6D06+653702]
+	(No symbol) [0x00007FF7735BA208]
+	(No symbol) [0x00007FF7735B62C4]
+	(No symbol) [0x00007FF7735B63F6]
+	(No symbol) [0x00007FF7735A67A3]
+	BaseThreadInitThunk [0x00007FFBCE17257D+29]
+	RtlUserThreadStart [0x00007FFBCF58AA68+40]
+</t>
+  </si>
+  <si>
+    <t>00:01:32</t>
+  </si>
+  <si>
+    <t>09:46</t>
+  </si>
+  <si>
+    <t>00:01:18</t>
+  </si>
+  <si>
+    <t>extracao_dados</t>
+  </si>
+  <si>
+    <t>00:00:30</t>
+  </si>
+  <si>
+    <t>09:47</t>
+  </si>
+  <si>
+    <t>00:00:24</t>
+  </si>
+  <si>
+    <t>09:49</t>
+  </si>
+  <si>
+    <t>00:00:25</t>
+  </si>
+  <si>
+    <t>10:12</t>
+  </si>
+  <si>
+    <t>10:16</t>
+  </si>
+  <si>
+    <t>00:00:27</t>
+  </si>
+  <si>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>00:03:03</t>
+  </si>
+  <si>
+    <t>10:24</t>
+  </si>
+  <si>
+    <t>00:00:29</t>
+  </si>
+  <si>
+    <t>16:01</t>
+  </si>
+  <si>
+    <t>00:01:03</t>
+  </si>
+  <si>
+    <t>Black List</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +260,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,81 +584,433 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NOME_ROBO</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DATA_EXECUCAO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HORA_EXECUCAO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>TEMPO_EXECUCAO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DETALHES</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>black_list</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>01/09/2023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13:39</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>00:09:50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Sucesso</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Robo excutado com sucesso</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/database/log_execucao.xlsx
+++ b/database/log_execucao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,6 +1444,262 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Black List</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>06/09/2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>00:01:15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sucesso</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Robo excutado com sucesso</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Black List</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>06/09/2023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>00:01:15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sucesso</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Robo excutado com sucesso</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Black List</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>11/09/2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>00:02:35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sucesso</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Robo excutado com sucesso</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Black List</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>12/09/2023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>00:01:24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Sucesso</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Robo excutado com sucesso</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Black List</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>12/09/2023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>08:56</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>00:01:17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sucesso</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Robo excutado com sucesso</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Black List</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>12/09/2023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08:59</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>00:01:16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sucesso</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Robo excutado com sucesso</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Black List</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>12/09/2023</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>09:06</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>00:01:18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Sucesso</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Robo excutado com sucesso</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Black List</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>12/09/2023</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>09:16</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>00:01:21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sucesso</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Robo excutado com sucesso</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
